--- a/Code/Results/Cases/Case_2_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.877333710574135</v>
+        <v>0.7703056913383648</v>
       </c>
       <c r="C2">
-        <v>0.3106266117832064</v>
+        <v>0.3295828141356054</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1020324437853031</v>
+        <v>0.2844512865831206</v>
       </c>
       <c r="F2">
-        <v>0.8287558137421556</v>
+        <v>1.589678996306723</v>
       </c>
       <c r="G2">
-        <v>0.2719838912160384</v>
+        <v>0.4254963740840196</v>
       </c>
       <c r="H2">
-        <v>0.2350215281881702</v>
+        <v>0.5831891309690675</v>
       </c>
       <c r="I2">
-        <v>0.2360002211311389</v>
+        <v>0.6102625210376722</v>
       </c>
       <c r="J2">
-        <v>0.06813934984204195</v>
+        <v>0.03413410147303608</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3306836429150763</v>
+        <v>0.5147292296006896</v>
       </c>
       <c r="M2">
-        <v>0.4070601434623313</v>
+        <v>0.2743136236860977</v>
       </c>
       <c r="N2">
-        <v>0.8213648670545695</v>
+        <v>1.292474984401522</v>
       </c>
       <c r="O2">
-        <v>1.018394378262556</v>
+        <v>1.967689820262649</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.634152369811829</v>
+        <v>0.6961110176983425</v>
       </c>
       <c r="C3">
-        <v>0.2936452559169567</v>
+        <v>0.323964187096891</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.102121425198348</v>
+        <v>0.2859208769586683</v>
       </c>
       <c r="F3">
-        <v>0.7888559846774399</v>
+        <v>1.590956636104316</v>
       </c>
       <c r="G3">
-        <v>0.2560490572654075</v>
+        <v>0.42553389923917</v>
       </c>
       <c r="H3">
-        <v>0.2326047875916331</v>
+        <v>0.586603433364516</v>
       </c>
       <c r="I3">
-        <v>0.2397312123285111</v>
+        <v>0.6163105078771238</v>
       </c>
       <c r="J3">
-        <v>0.06128167345109503</v>
+        <v>0.03184467668103963</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3027148203251073</v>
+        <v>0.5094471736540669</v>
       </c>
       <c r="M3">
-        <v>0.3562550196791889</v>
+        <v>0.2600185215391662</v>
       </c>
       <c r="N3">
-        <v>0.8308238695511889</v>
+        <v>1.298830024754274</v>
       </c>
       <c r="O3">
-        <v>0.9792309505178025</v>
+        <v>1.974675158931731</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.484781501029772</v>
+        <v>0.6505604535767588</v>
       </c>
       <c r="C4">
-        <v>0.2832060889501378</v>
+        <v>0.3205012997947705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1022885408481287</v>
+        <v>0.2869092503358637</v>
       </c>
       <c r="F4">
-        <v>0.7656850263230055</v>
+        <v>1.592545196984453</v>
       </c>
       <c r="G4">
-        <v>0.246888849462259</v>
+        <v>0.4258602509125566</v>
       </c>
       <c r="H4">
-        <v>0.2315288018902351</v>
+        <v>0.5889567206258874</v>
       </c>
       <c r="I4">
-        <v>0.2425733649648549</v>
+        <v>0.620342996147496</v>
       </c>
       <c r="J4">
-        <v>0.05705946699158559</v>
+        <v>0.03042887143561046</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2857823199514797</v>
+        <v>0.5063848949737348</v>
       </c>
       <c r="M4">
-        <v>0.3251344392417508</v>
+        <v>0.2513054914693029</v>
       </c>
       <c r="N4">
-        <v>0.8374841576663457</v>
+        <v>1.303169070198813</v>
       </c>
       <c r="O4">
-        <v>0.9573523011844713</v>
+        <v>1.980136388481682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.423886189576677</v>
+        <v>0.6320010416212369</v>
       </c>
       <c r="C5">
-        <v>0.2789483989019175</v>
+        <v>0.3190869971766261</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1023843408758562</v>
+        <v>0.2873336959373436</v>
       </c>
       <c r="F5">
-        <v>0.7565619256503879</v>
+        <v>1.593394971073998</v>
       </c>
       <c r="G5">
-        <v>0.2433044002982001</v>
+        <v>0.4260694723646452</v>
       </c>
       <c r="H5">
-        <v>0.2311891612164203</v>
+        <v>0.5899803583250574</v>
       </c>
       <c r="I5">
-        <v>0.2438652123204683</v>
+        <v>0.6220664811687868</v>
       </c>
       <c r="J5">
-        <v>0.05533571237168644</v>
+        <v>0.02984941307303401</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2789395495630203</v>
+        <v>0.5051826948940743</v>
       </c>
       <c r="M5">
-        <v>0.3124681024550284</v>
+        <v>0.2477713254592189</v>
       </c>
       <c r="N5">
-        <v>0.84040704957998</v>
+        <v>1.305047357531741</v>
       </c>
       <c r="O5">
-        <v>0.9489559218450125</v>
+        <v>1.98265667248765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.413772715965962</v>
+        <v>0.6289194791136481</v>
       </c>
       <c r="C6">
-        <v>0.2782411791762627</v>
+        <v>0.3188519669472925</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1024019046447329</v>
+        <v>0.2874054851311332</v>
       </c>
       <c r="F6">
-        <v>0.755065908005875</v>
+        <v>1.593548307966934</v>
       </c>
       <c r="G6">
-        <v>0.2427179281542777</v>
+        <v>0.4261088163985178</v>
       </c>
       <c r="H6">
-        <v>0.2311386270639701</v>
+        <v>0.5901542391930121</v>
       </c>
       <c r="I6">
-        <v>0.2440876525016726</v>
+        <v>0.6223575091781974</v>
       </c>
       <c r="J6">
-        <v>0.05504928526281816</v>
+        <v>0.02975304398685807</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.277806689115593</v>
+        <v>0.5049858369800262</v>
       </c>
       <c r="M6">
-        <v>0.3103657203701857</v>
+        <v>0.2471854835904352</v>
       </c>
       <c r="N6">
-        <v>0.8409048446432053</v>
+        <v>1.305365900816064</v>
       </c>
       <c r="O6">
-        <v>0.9475923436135076</v>
+        <v>1.983092969076353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.483960363053995</v>
+        <v>0.650310141493776</v>
       </c>
       <c r="C7">
-        <v>0.2831486836239918</v>
+        <v>0.3204822385904436</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1022897214456933</v>
+        <v>0.286914886740961</v>
       </c>
       <c r="F7">
-        <v>0.765560715223387</v>
+        <v>1.592555837429451</v>
       </c>
       <c r="G7">
-        <v>0.2468399183452163</v>
+        <v>0.4258627639445649</v>
       </c>
       <c r="H7">
-        <v>0.2315238260330474</v>
+        <v>0.5889702639052317</v>
       </c>
       <c r="I7">
-        <v>0.2425902525808183</v>
+        <v>0.6203659148909786</v>
       </c>
       <c r="J7">
-        <v>0.0570362330126315</v>
+        <v>0.03042106676430123</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2856898077066887</v>
+        <v>0.5063684963554209</v>
       </c>
       <c r="M7">
-        <v>0.324963557529685</v>
+        <v>0.2512577613878832</v>
       </c>
       <c r="N7">
-        <v>0.8375227386822246</v>
+        <v>1.303193955419431</v>
       </c>
       <c r="O7">
-        <v>0.9572369951307707</v>
+        <v>1.980169184288059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.793489458118415</v>
+        <v>0.7447231447125091</v>
       </c>
       <c r="C8">
-        <v>0.3047737294477315</v>
+        <v>0.3276482903923039</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1020394201763821</v>
+        <v>0.2849401680588439</v>
       </c>
       <c r="F8">
-        <v>0.81471379967563</v>
+        <v>1.589952772545232</v>
       </c>
       <c r="G8">
-        <v>0.2663548743372601</v>
+        <v>0.425446335519986</v>
       </c>
       <c r="H8">
-        <v>0.2341012751789435</v>
+        <v>0.5843130980955067</v>
       </c>
       <c r="I8">
-        <v>0.2371691826454203</v>
+        <v>0.6122816575779844</v>
       </c>
       <c r="J8">
-        <v>0.06577705922182275</v>
+        <v>0.03334681966500597</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3209881604250597</v>
+        <v>0.5128705481005369</v>
       </c>
       <c r="M8">
-        <v>0.389525282079255</v>
+        <v>0.2693715281402334</v>
       </c>
       <c r="N8">
-        <v>0.82444597320886</v>
+        <v>1.294575614767425</v>
       </c>
       <c r="O8">
-        <v>1.004425026599577</v>
+        <v>1.969855087853119</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.40059847883191</v>
+        <v>0.9298520573849487</v>
       </c>
       <c r="C9">
-        <v>0.3471074933352156</v>
+        <v>0.3415925575373251</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.102468609096718</v>
+        <v>0.2817486840110064</v>
       </c>
       <c r="F9">
-        <v>0.9223308464188449</v>
+        <v>1.591219856709301</v>
       </c>
       <c r="G9">
-        <v>0.3099745448728584</v>
+        <v>0.4270388080117442</v>
       </c>
       <c r="H9">
-        <v>0.2425692045906516</v>
+        <v>0.577216443363227</v>
       </c>
       <c r="I9">
-        <v>0.2311470856278319</v>
+        <v>0.598959681990177</v>
       </c>
       <c r="J9">
-        <v>0.08283930810589624</v>
+        <v>0.03900305214876454</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3922668725711844</v>
+        <v>0.5270484987441932</v>
       </c>
       <c r="M9">
-        <v>0.5168696219350082</v>
+        <v>0.305390115044581</v>
       </c>
       <c r="N9">
-        <v>0.8058302966553015</v>
+        <v>1.281134412664507</v>
       </c>
       <c r="O9">
-        <v>1.115382876206013</v>
+        <v>1.958930757094777</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.847607949575206</v>
+        <v>1.06579453720002</v>
       </c>
       <c r="C10">
-        <v>0.3782096104173576</v>
+        <v>0.3517656415702106</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1033848122403924</v>
+        <v>0.2798166968645077</v>
       </c>
       <c r="F10">
-        <v>1.009257928004004</v>
+        <v>1.596026389887726</v>
       </c>
       <c r="G10">
-        <v>0.3458710034728654</v>
+        <v>0.4296817930262335</v>
       </c>
       <c r="H10">
-        <v>0.251130626936785</v>
+        <v>0.5732409642065051</v>
       </c>
       <c r="I10">
-        <v>0.229872183359852</v>
+        <v>0.5907153188946168</v>
       </c>
       <c r="J10">
-        <v>0.09534763574922067</v>
+        <v>0.04310808185204706</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4461157664841124</v>
+        <v>0.5383258750186286</v>
       </c>
       <c r="M10">
-        <v>0.6111131392364513</v>
+        <v>0.3321428720147424</v>
       </c>
       <c r="N10">
-        <v>0.7968237027507215</v>
+        <v>1.273357579073021</v>
       </c>
       <c r="O10">
-        <v>1.209922044097681</v>
+        <v>1.956578907974716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.051388936153501</v>
+        <v>1.127610195746513</v>
       </c>
       <c r="C11">
-        <v>0.3923696975926845</v>
+        <v>0.3563769045230316</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1039413596213805</v>
+        <v>0.2790269338092024</v>
       </c>
       <c r="F11">
-        <v>1.050747825249417</v>
+        <v>1.599052855717517</v>
       </c>
       <c r="G11">
-        <v>0.363174680834419</v>
+        <v>0.4312049864437597</v>
       </c>
       <c r="H11">
-        <v>0.2555943558372604</v>
+        <v>0.5717007647941585</v>
       </c>
       <c r="I11">
-        <v>0.2300553931857259</v>
+        <v>0.5872999075163676</v>
       </c>
       <c r="J11">
-        <v>0.1010369283971215</v>
+        <v>0.04496435752261618</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4709876168124794</v>
+        <v>0.5436412722418851</v>
       </c>
       <c r="M11">
-        <v>0.6541911205502586</v>
+        <v>0.3443736609681736</v>
       </c>
       <c r="N11">
-        <v>0.7938310500634458</v>
+        <v>1.270273232783396</v>
       </c>
       <c r="O11">
-        <v>1.256176515488789</v>
+        <v>1.956742084834161</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.128636223190256</v>
+        <v>1.151013197802911</v>
       </c>
       <c r="C12">
-        <v>0.3977343667180264</v>
+        <v>0.358120576107396</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1041730159018286</v>
+        <v>0.2787406451906129</v>
       </c>
       <c r="F12">
-        <v>1.066759671555999</v>
+        <v>1.600319492521137</v>
       </c>
       <c r="G12">
-        <v>0.3698793632015906</v>
+        <v>0.431827982560435</v>
       </c>
       <c r="H12">
-        <v>0.2573718677676595</v>
+        <v>0.5711560585687323</v>
       </c>
       <c r="I12">
-        <v>0.2302415268349307</v>
+        <v>0.5860547598415877</v>
       </c>
       <c r="J12">
-        <v>0.1031916005956717</v>
+        <v>0.04566565386354426</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4804645570622057</v>
+        <v>0.5456805242310026</v>
       </c>
       <c r="M12">
-        <v>0.6705380407825317</v>
+        <v>0.3490136027555053</v>
       </c>
       <c r="N12">
-        <v>0.792864668746617</v>
+        <v>1.269170294524443</v>
       </c>
       <c r="O12">
-        <v>1.274195975191674</v>
+        <v>1.956981215045317</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.111995795098665</v>
+        <v>1.145973201585946</v>
       </c>
       <c r="C13">
-        <v>0.3965788606922445</v>
+        <v>0.3577451592117598</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1041221815881634</v>
+        <v>0.2788017348569234</v>
       </c>
       <c r="F13">
-        <v>1.063297526470905</v>
+        <v>1.600041340064791</v>
       </c>
       <c r="G13">
-        <v>0.3684284227217063</v>
+        <v>0.4316917538012888</v>
       </c>
       <c r="H13">
-        <v>0.2569850818969428</v>
+        <v>0.5712716576724404</v>
       </c>
       <c r="I13">
-        <v>0.2301961308643747</v>
+        <v>0.5863207808422786</v>
       </c>
       <c r="J13">
-        <v>0.1027275355479134</v>
+        <v>0.04551469043131817</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4784208517930466</v>
+        <v>0.5452401629155474</v>
       </c>
       <c r="M13">
-        <v>0.6670158405392286</v>
+        <v>0.3480139397476023</v>
       </c>
       <c r="N13">
-        <v>0.7930652415067811</v>
+        <v>1.269404941962222</v>
       </c>
       <c r="O13">
-        <v>1.270292140899357</v>
+        <v>1.956921826468175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.057742412211951</v>
+        <v>1.12953568919238</v>
       </c>
       <c r="C14">
-        <v>0.3928109956217298</v>
+        <v>0.3565204085963387</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1039599944118805</v>
+        <v>0.2790031247979918</v>
       </c>
       <c r="F14">
-        <v>1.052058984006038</v>
+        <v>1.599154647262992</v>
       </c>
       <c r="G14">
-        <v>0.3637231579309201</v>
+        <v>0.4312553145781095</v>
       </c>
       <c r="H14">
-        <v>0.2557388134309662</v>
+        <v>0.5716551794521791</v>
       </c>
       <c r="I14">
-        <v>0.2300683249364432</v>
+        <v>0.5871965024463321</v>
       </c>
       <c r="J14">
-        <v>0.1012141871124683</v>
+        <v>0.04502208656538187</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4717660910886963</v>
+        <v>0.5438085143317579</v>
       </c>
       <c r="M14">
-        <v>0.6555352782404213</v>
+        <v>0.3447552252159127</v>
       </c>
       <c r="N14">
-        <v>0.7937481531947128</v>
+        <v>1.27018119084768</v>
       </c>
       <c r="O14">
-        <v>1.257648669566834</v>
+        <v>1.956758203936573</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.024521586689275</v>
+        <v>1.119466507135996</v>
       </c>
       <c r="C15">
-        <v>0.390503429563168</v>
+        <v>0.3557698820609971</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.103863397021577</v>
+        <v>0.2791281448925957</v>
       </c>
       <c r="F15">
-        <v>1.045214822428932</v>
+        <v>1.598627219299146</v>
       </c>
       <c r="G15">
-        <v>0.3608612331447745</v>
+        <v>0.4309940005571917</v>
       </c>
       <c r="H15">
-        <v>0.2549869579995487</v>
+        <v>0.5718951146028814</v>
       </c>
       <c r="I15">
-        <v>0.2300054602282593</v>
+        <v>0.5877391842447253</v>
       </c>
       <c r="J15">
-        <v>0.100287263009541</v>
+        <v>0.04472013849694889</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4676976155533765</v>
+        <v>0.5429350233820003</v>
       </c>
       <c r="M15">
-        <v>0.6485077006899331</v>
+        <v>0.3427602533066221</v>
       </c>
       <c r="N15">
-        <v>0.7941884346320052</v>
+        <v>1.270665130781964</v>
       </c>
       <c r="O15">
-        <v>1.249970931351328</v>
+        <v>1.956681075936842</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.834300578790987</v>
+        <v>1.061754092251931</v>
       </c>
       <c r="C16">
-        <v>0.3772845221860308</v>
+        <v>0.3514639404222919</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1033513209142534</v>
+        <v>0.2798700997259047</v>
       </c>
       <c r="F16">
-        <v>1.00658736819986</v>
+        <v>1.595845487775094</v>
       </c>
       <c r="G16">
-        <v>0.3447607858151969</v>
+        <v>0.4295887103458824</v>
       </c>
       <c r="H16">
-        <v>0.2508508141601027</v>
+        <v>0.5733470144280943</v>
       </c>
       <c r="I16">
-        <v>0.2298761575250197</v>
+        <v>0.5909452669226312</v>
       </c>
       <c r="J16">
-        <v>0.09497584251155899</v>
+        <v>0.04298654301717875</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4444982698979203</v>
+        <v>0.5379822109622125</v>
       </c>
       <c r="M16">
-        <v>0.6083024242619572</v>
+        <v>0.3313447561595027</v>
       </c>
       <c r="N16">
-        <v>0.797042182231209</v>
+        <v>1.273568257823158</v>
       </c>
       <c r="O16">
-        <v>1.206967663125909</v>
+        <v>1.95659305847991</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.717729337948924</v>
+        <v>1.026341776746278</v>
       </c>
       <c r="C17">
-        <v>0.3691787194515825</v>
+        <v>0.3488180545351298</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1030735360009309</v>
+        <v>0.2803480618922833</v>
       </c>
       <c r="F17">
-        <v>0.9834034922778869</v>
+        <v>1.594353972335213</v>
       </c>
       <c r="G17">
-        <v>0.3351415574124843</v>
+        <v>0.4288088349337755</v>
       </c>
       <c r="H17">
-        <v>0.2484628946884868</v>
+        <v>0.5743063870892229</v>
       </c>
       <c r="I17">
-        <v>0.2299971659020912</v>
+        <v>0.5929979105804151</v>
       </c>
       <c r="J17">
-        <v>0.09171751188830513</v>
+        <v>0.0419201642736482</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4303655565137774</v>
+        <v>0.5349911187736183</v>
       </c>
       <c r="M17">
-        <v>0.5836937463316474</v>
+        <v>0.324357055903576</v>
       </c>
       <c r="N17">
-        <v>0.7990813320798935</v>
+        <v>1.275465238734832</v>
       </c>
       <c r="O17">
-        <v>1.181443978378667</v>
+        <v>1.956854895983838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.650720388027764</v>
+        <v>1.005971268501128</v>
       </c>
       <c r="C18">
-        <v>0.3645175076866707</v>
+        <v>0.3472946638256502</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.102926865871348</v>
+        <v>0.2806313624666537</v>
       </c>
       <c r="F18">
-        <v>0.9702506330068132</v>
+        <v>1.593575164445895</v>
       </c>
       <c r="G18">
-        <v>0.3296997634716234</v>
+        <v>0.4283904714820181</v>
       </c>
       <c r="H18">
-        <v>0.2471426528529435</v>
+        <v>0.5748834458718903</v>
       </c>
       <c r="I18">
-        <v>0.2301381569284899</v>
+        <v>0.5942100664642602</v>
       </c>
       <c r="J18">
-        <v>0.08984330629591142</v>
+        <v>0.04130576661322749</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4222718735980351</v>
+        <v>0.5332881722156912</v>
       </c>
       <c r="M18">
-        <v>0.5695585950770834</v>
+        <v>0.3203436609933163</v>
       </c>
       <c r="N18">
-        <v>0.8003576484895802</v>
+        <v>1.27659901492472</v>
       </c>
       <c r="O18">
-        <v>1.167066826910798</v>
+        <v>1.957121556475329</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.628038625141187</v>
+        <v>0.999073821885986</v>
       </c>
       <c r="C19">
-        <v>0.362939453057507</v>
+        <v>0.346778608383417</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1028794326792006</v>
+        <v>0.2807287251570738</v>
       </c>
       <c r="F19">
-        <v>0.9658279315285796</v>
+        <v>1.593325060413136</v>
       </c>
       <c r="G19">
-        <v>0.3278725272472229</v>
+        <v>0.428254006101298</v>
       </c>
       <c r="H19">
-        <v>0.2467046252702119</v>
+        <v>0.5750831665816492</v>
       </c>
       <c r="I19">
-        <v>0.230197948165948</v>
+        <v>0.5946258961365096</v>
       </c>
       <c r="J19">
-        <v>0.08920870420545413</v>
+        <v>0.04109756375454765</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4195373845389696</v>
+        <v>0.5327145874423849</v>
       </c>
       <c r="M19">
-        <v>0.5647758233021491</v>
+        <v>0.3189857915633922</v>
       </c>
       <c r="N19">
-        <v>0.8008073174417731</v>
+        <v>1.276990227770902</v>
       </c>
       <c r="O19">
-        <v>1.162249993243762</v>
+        <v>1.957231775388294</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.730134310006861</v>
+        <v>1.030111725958477</v>
       </c>
       <c r="C20">
-        <v>0.3700414830829715</v>
+        <v>0.3490998747240752</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1031017447136549</v>
+        <v>0.2802963139962191</v>
       </c>
       <c r="F20">
-        <v>0.985852484491275</v>
+        <v>1.594504564481468</v>
       </c>
       <c r="G20">
-        <v>0.3361560444998162</v>
+        <v>0.4288887280031446</v>
       </c>
       <c r="H20">
-        <v>0.2487115462847669</v>
+        <v>0.5742016469484099</v>
       </c>
       <c r="I20">
-        <v>0.2299768462054885</v>
+        <v>0.5927761398003462</v>
       </c>
       <c r="J20">
-        <v>0.09206437443877036</v>
+        <v>0.04203379050217393</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4318663457360969</v>
+        <v>0.5353077211270971</v>
       </c>
       <c r="M20">
-        <v>0.5863113721678559</v>
+        <v>0.3251003163488022</v>
       </c>
       <c r="N20">
-        <v>0.7988534974517449</v>
+        <v>1.275258885509558</v>
       </c>
       <c r="O20">
-        <v>1.184129358122675</v>
+        <v>1.956815011102719</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.073675633473954</v>
+        <v>1.13436394026985</v>
       </c>
       <c r="C21">
-        <v>0.3939176321758708</v>
+        <v>0.3568802168530283</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.104007058759823</v>
+        <v>0.2789436251994921</v>
       </c>
       <c r="F21">
-        <v>1.055351689727061</v>
+        <v>1.599411819562661</v>
       </c>
       <c r="G21">
-        <v>0.3651009789852111</v>
+        <v>0.4313822532015905</v>
       </c>
       <c r="H21">
-        <v>0.2561024619029553</v>
+        <v>0.5715414843494955</v>
       </c>
       <c r="I21">
-        <v>0.230102638009555</v>
+        <v>0.5869379736150506</v>
       </c>
       <c r="J21">
-        <v>0.1016586840421496</v>
+        <v>0.0451668209179843</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4737191305605961</v>
+        <v>0.5442283087252946</v>
       </c>
       <c r="M21">
-        <v>0.6589064307575399</v>
+        <v>0.3457121631927365</v>
       </c>
       <c r="N21">
-        <v>0.7935429702017558</v>
+        <v>1.269951423895563</v>
       </c>
       <c r="O21">
-        <v>1.261348383408688</v>
+        <v>1.956801450707388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.298674207070178</v>
+        <v>1.202467462062089</v>
       </c>
       <c r="C22">
-        <v>0.4095374238026892</v>
+        <v>0.3619504054334044</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1047209820150314</v>
+        <v>0.2781340253211333</v>
       </c>
       <c r="F22">
-        <v>1.102535577962882</v>
+        <v>1.603321730434757</v>
       </c>
       <c r="G22">
-        <v>0.3849111820130702</v>
+        <v>0.4332812043004566</v>
       </c>
       <c r="H22">
-        <v>0.2614438176088782</v>
+        <v>0.570027499466903</v>
       </c>
       <c r="I22">
-        <v>0.2308689438051559</v>
+        <v>0.5834033194717811</v>
       </c>
       <c r="J22">
-        <v>0.1079308304773008</v>
+        <v>0.04720489098563974</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5014156711036577</v>
+        <v>0.5502123624046078</v>
       </c>
       <c r="M22">
-        <v>0.7065533387155156</v>
+        <v>0.3592320444287367</v>
       </c>
       <c r="N22">
-        <v>0.7910489589785499</v>
+        <v>1.266861704091653</v>
       </c>
       <c r="O22">
-        <v>1.314771298034174</v>
+        <v>1.957826264957987</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.178538721644543</v>
+        <v>1.166122730022948</v>
       </c>
       <c r="C23">
-        <v>0.401199126332628</v>
+        <v>0.3592457420778743</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1043284846525765</v>
+        <v>0.2785593227636909</v>
       </c>
       <c r="F23">
-        <v>1.077184272592703</v>
+        <v>1.601170704823261</v>
       </c>
       <c r="G23">
-        <v>0.3742522115177138</v>
+        <v>0.4322430413571396</v>
       </c>
       <c r="H23">
-        <v>0.2585444243868693</v>
+        <v>0.5708150061638122</v>
       </c>
       <c r="I23">
-        <v>0.2303949333775037</v>
+        <v>0.585264118655541</v>
       </c>
       <c r="J23">
-        <v>0.1045829807356071</v>
+        <v>0.04611801989935316</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4866005372411024</v>
+        <v>0.5470045461123902</v>
       </c>
       <c r="M23">
-        <v>0.6811032206224183</v>
+        <v>0.352011871819208</v>
       </c>
       <c r="N23">
-        <v>0.7922879082820344</v>
+        <v>1.268476117211975</v>
       </c>
       <c r="O23">
-        <v>1.285975266079703</v>
+        <v>1.95718471215045</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.724525994132762</v>
+        <v>1.028407367604984</v>
       </c>
       <c r="C24">
-        <v>0.3696514310683057</v>
+        <v>0.3489724707694819</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1030889510230004</v>
+        <v>0.280319682698158</v>
       </c>
       <c r="F24">
-        <v>0.984744748894542</v>
+        <v>1.594436236663569</v>
       </c>
       <c r="G24">
-        <v>0.3356971203562864</v>
+        <v>0.4288525149115117</v>
       </c>
       <c r="H24">
-        <v>0.2485989674470233</v>
+        <v>0.5742489205238712</v>
       </c>
       <c r="I24">
-        <v>0.2299858108034485</v>
+        <v>0.5928763024958847</v>
       </c>
       <c r="J24">
-        <v>0.09190756086045582</v>
+        <v>0.04198242420071807</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.431187741453158</v>
+        <v>0.5351645332557666</v>
       </c>
       <c r="M24">
-        <v>0.5851279042950921</v>
+        <v>0.3247642760434104</v>
       </c>
       <c r="N24">
-        <v>0.7989561782097283</v>
+        <v>1.275352043298625</v>
       </c>
       <c r="O24">
-        <v>1.182914376373333</v>
+        <v>1.956832681334106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.236257802658429</v>
+        <v>0.8797778525905073</v>
       </c>
       <c r="C25">
-        <v>0.3356585990024143</v>
+        <v>0.3378324555272201</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1022499903495238</v>
+        <v>0.2825394065480449</v>
       </c>
       <c r="F25">
-        <v>0.8919138964708679</v>
+        <v>1.590195842974239</v>
       </c>
       <c r="G25">
-        <v>0.2975427556674006</v>
+        <v>0.426349638944636</v>
       </c>
       <c r="H25">
-        <v>0.2398870873904144</v>
+        <v>0.5789185936227668</v>
       </c>
       <c r="I25">
-        <v>0.2322488095116988</v>
+        <v>0.6022926240331827</v>
       </c>
       <c r="J25">
-        <v>0.07822986545657074</v>
+        <v>0.0374816961313158</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3727411822597588</v>
+        <v>0.5230611383530999</v>
       </c>
       <c r="M25">
-        <v>0.482317303487811</v>
+        <v>0.2955942550364341</v>
       </c>
       <c r="N25">
-        <v>0.8100754311817866</v>
+        <v>1.284401367021367</v>
       </c>
       <c r="O25">
-        <v>1.083214986472598</v>
+        <v>1.960889883052516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7703056913383648</v>
+        <v>1.877333710573993</v>
       </c>
       <c r="C2">
-        <v>0.3295828141356054</v>
+        <v>0.3106266117833911</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2844512865831206</v>
+        <v>0.1020324437853031</v>
       </c>
       <c r="F2">
-        <v>1.589678996306723</v>
+        <v>0.8287558137421485</v>
       </c>
       <c r="G2">
-        <v>0.4254963740840196</v>
+        <v>0.2719838912159247</v>
       </c>
       <c r="H2">
-        <v>0.5831891309690675</v>
+        <v>0.2350215281882697</v>
       </c>
       <c r="I2">
-        <v>0.6102625210376722</v>
+        <v>0.2360002211311354</v>
       </c>
       <c r="J2">
-        <v>0.03413410147303608</v>
+        <v>0.06813934984215564</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5147292296006896</v>
+        <v>0.3306836429150053</v>
       </c>
       <c r="M2">
-        <v>0.2743136236860977</v>
+        <v>0.4070601434623171</v>
       </c>
       <c r="N2">
-        <v>1.292474984401522</v>
+        <v>0.8213648670545552</v>
       </c>
       <c r="O2">
-        <v>1.967689820262649</v>
+        <v>1.018394378262599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6961110176983425</v>
+        <v>1.634152369812085</v>
       </c>
       <c r="C3">
-        <v>0.323964187096891</v>
+        <v>0.2936452559169282</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2859208769586683</v>
+        <v>0.1021214251983746</v>
       </c>
       <c r="F3">
-        <v>1.590956636104316</v>
+        <v>0.788855984677447</v>
       </c>
       <c r="G3">
-        <v>0.42553389923917</v>
+        <v>0.2560490572653578</v>
       </c>
       <c r="H3">
-        <v>0.586603433364516</v>
+        <v>0.2326047875915194</v>
       </c>
       <c r="I3">
-        <v>0.6163105078771238</v>
+        <v>0.2397312123285076</v>
       </c>
       <c r="J3">
-        <v>0.03184467668103963</v>
+        <v>0.06128167345108437</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5094471736540669</v>
+        <v>0.3027148203249652</v>
       </c>
       <c r="M3">
-        <v>0.2600185215391662</v>
+        <v>0.356255019679196</v>
       </c>
       <c r="N3">
-        <v>1.298830024754274</v>
+        <v>0.830823869551196</v>
       </c>
       <c r="O3">
-        <v>1.974675158931731</v>
+        <v>0.9792309505177457</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6505604535767588</v>
+        <v>1.484781501029886</v>
       </c>
       <c r="C4">
-        <v>0.3205012997947705</v>
+        <v>0.2832060889498962</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2869092503358637</v>
+        <v>0.1022885408481287</v>
       </c>
       <c r="F4">
-        <v>1.592545196984453</v>
+        <v>0.7656850263230055</v>
       </c>
       <c r="G4">
-        <v>0.4258602509125566</v>
+        <v>0.2468888494622519</v>
       </c>
       <c r="H4">
-        <v>0.5889567206258874</v>
+        <v>0.2315288018902351</v>
       </c>
       <c r="I4">
-        <v>0.620342996147496</v>
+        <v>0.2425733649648514</v>
       </c>
       <c r="J4">
-        <v>0.03042887143561046</v>
+        <v>0.0570594669917206</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5063848949737348</v>
+        <v>0.2857823199515082</v>
       </c>
       <c r="M4">
-        <v>0.2513054914693029</v>
+        <v>0.3251344392417437</v>
       </c>
       <c r="N4">
-        <v>1.303169070198813</v>
+        <v>0.8374841576663954</v>
       </c>
       <c r="O4">
-        <v>1.980136388481682</v>
+        <v>0.9573523011844856</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6320010416212369</v>
+        <v>1.423886189576649</v>
       </c>
       <c r="C5">
-        <v>0.3190869971766261</v>
+        <v>0.2789483989021164</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2873336959373436</v>
+        <v>0.1023843408758438</v>
       </c>
       <c r="F5">
-        <v>1.593394971073998</v>
+        <v>0.7565619256503879</v>
       </c>
       <c r="G5">
-        <v>0.4260694723646452</v>
+        <v>0.243304400298257</v>
       </c>
       <c r="H5">
-        <v>0.5899803583250574</v>
+        <v>0.2311891612164203</v>
       </c>
       <c r="I5">
-        <v>0.6220664811687868</v>
+        <v>0.2438652123204577</v>
       </c>
       <c r="J5">
-        <v>0.02984941307303401</v>
+        <v>0.05533571237170776</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5051826948940743</v>
+        <v>0.2789395495628639</v>
       </c>
       <c r="M5">
-        <v>0.2477713254592189</v>
+        <v>0.3124681024550284</v>
       </c>
       <c r="N5">
-        <v>1.305047357531741</v>
+        <v>0.8404070495799232</v>
       </c>
       <c r="O5">
-        <v>1.98265667248765</v>
+        <v>0.9489559218450125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6289194791136481</v>
+        <v>1.41377271596582</v>
       </c>
       <c r="C6">
-        <v>0.3188519669472925</v>
+        <v>0.2782411791760495</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2874054851311332</v>
+        <v>0.1024019046447133</v>
       </c>
       <c r="F6">
-        <v>1.593548307966934</v>
+        <v>0.7550659080058821</v>
       </c>
       <c r="G6">
-        <v>0.4261088163985178</v>
+        <v>0.2427179281542777</v>
       </c>
       <c r="H6">
-        <v>0.5901542391930121</v>
+        <v>0.2311386270639701</v>
       </c>
       <c r="I6">
-        <v>0.6223575091781974</v>
+        <v>0.2440876525016726</v>
       </c>
       <c r="J6">
-        <v>0.02975304398685807</v>
+        <v>0.05504928526282882</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5049858369800262</v>
+        <v>0.2778066891154936</v>
       </c>
       <c r="M6">
-        <v>0.2471854835904352</v>
+        <v>0.3103657203701715</v>
       </c>
       <c r="N6">
-        <v>1.305365900816064</v>
+        <v>0.840904844643191</v>
       </c>
       <c r="O6">
-        <v>1.983092969076353</v>
+        <v>0.9475923436135076</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.650310141493776</v>
+        <v>1.483960363054024</v>
       </c>
       <c r="C7">
-        <v>0.3204822385904436</v>
+        <v>0.2831486836242334</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.286914886740961</v>
+        <v>0.1022897214456773</v>
       </c>
       <c r="F7">
-        <v>1.592555837429451</v>
+        <v>0.7655607152234083</v>
       </c>
       <c r="G7">
-        <v>0.4258627639445649</v>
+        <v>0.2468399183450813</v>
       </c>
       <c r="H7">
-        <v>0.5889702639052317</v>
+        <v>0.2315238260329338</v>
       </c>
       <c r="I7">
-        <v>0.6203659148909786</v>
+        <v>0.2425902525808006</v>
       </c>
       <c r="J7">
-        <v>0.03042106676430123</v>
+        <v>0.05703623301253913</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5063684963554209</v>
+        <v>0.2856898077067314</v>
       </c>
       <c r="M7">
-        <v>0.2512577613878832</v>
+        <v>0.3249635575296637</v>
       </c>
       <c r="N7">
-        <v>1.303193955419431</v>
+        <v>0.8375227386822104</v>
       </c>
       <c r="O7">
-        <v>1.980169184288059</v>
+        <v>0.9572369951307707</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7447231447125091</v>
+        <v>1.793489458118444</v>
       </c>
       <c r="C8">
-        <v>0.3276482903923039</v>
+        <v>0.3047737294475041</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2849401680588439</v>
+        <v>0.1020394201763644</v>
       </c>
       <c r="F8">
-        <v>1.589952772545232</v>
+        <v>0.81471379967563</v>
       </c>
       <c r="G8">
-        <v>0.425446335519986</v>
+        <v>0.2663548743372601</v>
       </c>
       <c r="H8">
-        <v>0.5843130980955067</v>
+        <v>0.2341012751789435</v>
       </c>
       <c r="I8">
-        <v>0.6122816575779844</v>
+        <v>0.2371691826454203</v>
       </c>
       <c r="J8">
-        <v>0.03334681966500597</v>
+        <v>0.06577705922184407</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5128705481005369</v>
+        <v>0.3209881604251166</v>
       </c>
       <c r="M8">
-        <v>0.2693715281402334</v>
+        <v>0.389525282079255</v>
       </c>
       <c r="N8">
-        <v>1.294575614767425</v>
+        <v>0.82444597320886</v>
       </c>
       <c r="O8">
-        <v>1.969855087853119</v>
+        <v>1.004425026599577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9298520573849487</v>
+        <v>2.40059847883191</v>
       </c>
       <c r="C9">
-        <v>0.3415925575373251</v>
+        <v>0.347107493335443</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2817486840110064</v>
+        <v>0.1024686090966718</v>
       </c>
       <c r="F9">
-        <v>1.591219856709301</v>
+        <v>0.9223308464188307</v>
       </c>
       <c r="G9">
-        <v>0.4270388080117442</v>
+        <v>0.3099745448728584</v>
       </c>
       <c r="H9">
-        <v>0.577216443363227</v>
+        <v>0.2425692045906516</v>
       </c>
       <c r="I9">
-        <v>0.598959681990177</v>
+        <v>0.2311470856278284</v>
       </c>
       <c r="J9">
-        <v>0.03900305214876454</v>
+        <v>0.08283930810593176</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5270484987441932</v>
+        <v>0.3922668725710992</v>
       </c>
       <c r="M9">
-        <v>0.305390115044581</v>
+        <v>0.5168696219350153</v>
       </c>
       <c r="N9">
-        <v>1.281134412664507</v>
+        <v>0.8058302966553441</v>
       </c>
       <c r="O9">
-        <v>1.958930757094777</v>
+        <v>1.115382876206013</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.06579453720002</v>
+        <v>2.847607949575206</v>
       </c>
       <c r="C10">
-        <v>0.3517656415702106</v>
+        <v>0.3782096104173576</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2798166968645077</v>
+        <v>0.103384812240396</v>
       </c>
       <c r="F10">
-        <v>1.596026389887726</v>
+        <v>1.009257928004018</v>
       </c>
       <c r="G10">
-        <v>0.4296817930262335</v>
+        <v>0.3458710034728938</v>
       </c>
       <c r="H10">
-        <v>0.5732409642065051</v>
+        <v>0.2511306269367992</v>
       </c>
       <c r="I10">
-        <v>0.5907153188946168</v>
+        <v>0.2298721833598556</v>
       </c>
       <c r="J10">
-        <v>0.04310808185204706</v>
+        <v>0.09534763574919936</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5383258750186286</v>
+        <v>0.4461157664840556</v>
       </c>
       <c r="M10">
-        <v>0.3321428720147424</v>
+        <v>0.6111131392364655</v>
       </c>
       <c r="N10">
-        <v>1.273357579073021</v>
+        <v>0.7968237027506788</v>
       </c>
       <c r="O10">
-        <v>1.956578907974716</v>
+        <v>1.209922044097681</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.127610195746513</v>
+        <v>3.051388936153614</v>
       </c>
       <c r="C11">
-        <v>0.3563769045230316</v>
+        <v>0.3923696975925282</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2790269338092024</v>
+        <v>0.1039413596213912</v>
       </c>
       <c r="F11">
-        <v>1.599052855717517</v>
+        <v>1.050747825249431</v>
       </c>
       <c r="G11">
-        <v>0.4312049864437597</v>
+        <v>0.3631746808344332</v>
       </c>
       <c r="H11">
-        <v>0.5717007647941585</v>
+        <v>0.2555943558373741</v>
       </c>
       <c r="I11">
-        <v>0.5872999075163676</v>
+        <v>0.2300553931857436</v>
       </c>
       <c r="J11">
-        <v>0.04496435752261618</v>
+        <v>0.1010369283971571</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5436412722418851</v>
+        <v>0.4709876168125504</v>
       </c>
       <c r="M11">
-        <v>0.3443736609681736</v>
+        <v>0.6541911205502373</v>
       </c>
       <c r="N11">
-        <v>1.270273232783396</v>
+        <v>0.7938310500635168</v>
       </c>
       <c r="O11">
-        <v>1.956742084834161</v>
+        <v>1.256176515488818</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.151013197802911</v>
+        <v>3.128636223190256</v>
       </c>
       <c r="C12">
-        <v>0.358120576107396</v>
+        <v>0.3977343667184812</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2787406451906129</v>
+        <v>0.1041730159018215</v>
       </c>
       <c r="F12">
-        <v>1.600319492521137</v>
+        <v>1.066759671555999</v>
       </c>
       <c r="G12">
-        <v>0.431827982560435</v>
+        <v>0.3698793632015906</v>
       </c>
       <c r="H12">
-        <v>0.5711560585687323</v>
+        <v>0.2573718677676595</v>
       </c>
       <c r="I12">
-        <v>0.5860547598415877</v>
+        <v>0.2302415268349236</v>
       </c>
       <c r="J12">
-        <v>0.04566565386354426</v>
+        <v>0.1031916005955935</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5456805242310026</v>
+        <v>0.4804645570622057</v>
       </c>
       <c r="M12">
-        <v>0.3490136027555053</v>
+        <v>0.6705380407825317</v>
       </c>
       <c r="N12">
-        <v>1.269170294524443</v>
+        <v>0.7928646687466738</v>
       </c>
       <c r="O12">
-        <v>1.956981215045317</v>
+        <v>1.274195975191816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.145973201585946</v>
+        <v>3.111995795098665</v>
       </c>
       <c r="C13">
-        <v>0.3577451592117598</v>
+        <v>0.3965788606923013</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2788017348569234</v>
+        <v>0.1041221815881563</v>
       </c>
       <c r="F13">
-        <v>1.600041340064791</v>
+        <v>1.063297526470905</v>
       </c>
       <c r="G13">
-        <v>0.4316917538012888</v>
+        <v>0.3684284227217631</v>
       </c>
       <c r="H13">
-        <v>0.5712716576724404</v>
+        <v>0.256985081896957</v>
       </c>
       <c r="I13">
-        <v>0.5863207808422786</v>
+        <v>0.2301961308643854</v>
       </c>
       <c r="J13">
-        <v>0.04551469043131817</v>
+        <v>0.1027275355479631</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5452401629155474</v>
+        <v>0.4784208517930892</v>
       </c>
       <c r="M13">
-        <v>0.3480139397476023</v>
+        <v>0.6670158405392144</v>
       </c>
       <c r="N13">
-        <v>1.269404941962222</v>
+        <v>0.7930652415067811</v>
       </c>
       <c r="O13">
-        <v>1.956921826468175</v>
+        <v>1.270292140899386</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.12953568919238</v>
+        <v>3.057742412212008</v>
       </c>
       <c r="C14">
-        <v>0.3565204085963387</v>
+        <v>0.3928109956218719</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2790031247979918</v>
+        <v>0.103959994411877</v>
       </c>
       <c r="F14">
-        <v>1.599154647262992</v>
+        <v>1.052058984006024</v>
       </c>
       <c r="G14">
-        <v>0.4312553145781095</v>
+        <v>0.3637231579309059</v>
       </c>
       <c r="H14">
-        <v>0.5716551794521791</v>
+        <v>0.2557388134308525</v>
       </c>
       <c r="I14">
-        <v>0.5871965024463321</v>
+        <v>0.230068324936429</v>
       </c>
       <c r="J14">
-        <v>0.04502208656538187</v>
+        <v>0.1012141871124115</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5438085143317579</v>
+        <v>0.4717660910886821</v>
       </c>
       <c r="M14">
-        <v>0.3447552252159127</v>
+        <v>0.6555352782404427</v>
       </c>
       <c r="N14">
-        <v>1.27018119084768</v>
+        <v>0.7937481531946986</v>
       </c>
       <c r="O14">
-        <v>1.956758203936573</v>
+        <v>1.257648669566834</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.119466507135996</v>
+        <v>3.024521586689445</v>
       </c>
       <c r="C15">
-        <v>0.3557698820609971</v>
+        <v>0.3905034295631538</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2791281448925957</v>
+        <v>0.1038633970215628</v>
       </c>
       <c r="F15">
-        <v>1.598627219299146</v>
+        <v>1.045214822428946</v>
       </c>
       <c r="G15">
-        <v>0.4309940005571917</v>
+        <v>0.3608612331448597</v>
       </c>
       <c r="H15">
-        <v>0.5718951146028814</v>
+        <v>0.2549869579995629</v>
       </c>
       <c r="I15">
-        <v>0.5877391842447253</v>
+        <v>0.2300054602282593</v>
       </c>
       <c r="J15">
-        <v>0.04472013849694889</v>
+        <v>0.1002872630094842</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5429350233820003</v>
+        <v>0.4676976155534049</v>
       </c>
       <c r="M15">
-        <v>0.3427602533066221</v>
+        <v>0.6485077006899402</v>
       </c>
       <c r="N15">
-        <v>1.270665130781964</v>
+        <v>0.794188434632062</v>
       </c>
       <c r="O15">
-        <v>1.956681075936842</v>
+        <v>1.249970931351328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.061754092251931</v>
+        <v>2.834300578790931</v>
       </c>
       <c r="C16">
-        <v>0.3514639404222919</v>
+        <v>0.3772845221862156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2798700997259047</v>
+        <v>0.1033513209142498</v>
       </c>
       <c r="F16">
-        <v>1.595845487775094</v>
+        <v>1.00658736819986</v>
       </c>
       <c r="G16">
-        <v>0.4295887103458824</v>
+        <v>0.3447607858152111</v>
       </c>
       <c r="H16">
-        <v>0.5733470144280943</v>
+        <v>0.2508508141601169</v>
       </c>
       <c r="I16">
-        <v>0.5909452669226312</v>
+        <v>0.2298761575250232</v>
       </c>
       <c r="J16">
-        <v>0.04298654301717875</v>
+        <v>0.09497584251150215</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5379822109622125</v>
+        <v>0.4444982698978919</v>
       </c>
       <c r="M16">
-        <v>0.3313447561595027</v>
+        <v>0.6083024242619572</v>
       </c>
       <c r="N16">
-        <v>1.273568257823158</v>
+        <v>0.7970421822312659</v>
       </c>
       <c r="O16">
-        <v>1.95659305847991</v>
+        <v>1.206967663125937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.026341776746278</v>
+        <v>2.717729337948754</v>
       </c>
       <c r="C17">
-        <v>0.3488180545351298</v>
+        <v>0.3691787194517246</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2803480618922833</v>
+        <v>0.103073536000915</v>
       </c>
       <c r="F17">
-        <v>1.594353972335213</v>
+        <v>0.9834034922778869</v>
       </c>
       <c r="G17">
-        <v>0.4288088349337755</v>
+        <v>0.3351415574123706</v>
       </c>
       <c r="H17">
-        <v>0.5743063870892229</v>
+        <v>0.2484628946884868</v>
       </c>
       <c r="I17">
-        <v>0.5929979105804151</v>
+        <v>0.2299971659020912</v>
       </c>
       <c r="J17">
-        <v>0.0419201642736482</v>
+        <v>0.09171751188824828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5349911187736183</v>
+        <v>0.43036555651382</v>
       </c>
       <c r="M17">
-        <v>0.324357055903576</v>
+        <v>0.5836937463316545</v>
       </c>
       <c r="N17">
-        <v>1.275465238734832</v>
+        <v>0.7990813320798864</v>
       </c>
       <c r="O17">
-        <v>1.956854895983838</v>
+        <v>1.181443978378582</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.005971268501128</v>
+        <v>2.650720388027764</v>
       </c>
       <c r="C18">
-        <v>0.3472946638256502</v>
+        <v>0.3645175076868981</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2806313624666537</v>
+        <v>0.1029268658713463</v>
       </c>
       <c r="F18">
-        <v>1.593575164445895</v>
+        <v>0.9702506330068132</v>
       </c>
       <c r="G18">
-        <v>0.4283904714820181</v>
+        <v>0.329699763471595</v>
       </c>
       <c r="H18">
-        <v>0.5748834458718903</v>
+        <v>0.2471426528530429</v>
       </c>
       <c r="I18">
-        <v>0.5942100664642602</v>
+        <v>0.2301381569284757</v>
       </c>
       <c r="J18">
-        <v>0.04130576661322749</v>
+        <v>0.08984330629593984</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5332881722156912</v>
+        <v>0.4222718735980919</v>
       </c>
       <c r="M18">
-        <v>0.3203436609933163</v>
+        <v>0.5695585950770763</v>
       </c>
       <c r="N18">
-        <v>1.27659901492472</v>
+        <v>0.80035764848963</v>
       </c>
       <c r="O18">
-        <v>1.957121556475329</v>
+        <v>1.167066826910826</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.999073821885986</v>
+        <v>2.628038625141073</v>
       </c>
       <c r="C19">
-        <v>0.346778608383417</v>
+        <v>0.3629394530574928</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2807287251570738</v>
+        <v>0.1028794326791829</v>
       </c>
       <c r="F19">
-        <v>1.593325060413136</v>
+        <v>0.9658279315285796</v>
       </c>
       <c r="G19">
-        <v>0.428254006101298</v>
+        <v>0.3278725272471945</v>
       </c>
       <c r="H19">
-        <v>0.5750831665816492</v>
+        <v>0.2467046252702119</v>
       </c>
       <c r="I19">
-        <v>0.5946258961365096</v>
+        <v>0.2301979481659409</v>
       </c>
       <c r="J19">
-        <v>0.04109756375454765</v>
+        <v>0.08920870420532623</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5327145874423849</v>
+        <v>0.4195373845389696</v>
       </c>
       <c r="M19">
-        <v>0.3189857915633922</v>
+        <v>0.5647758233021563</v>
       </c>
       <c r="N19">
-        <v>1.276990227770902</v>
+        <v>0.800807317441766</v>
       </c>
       <c r="O19">
-        <v>1.957231775388294</v>
+        <v>1.162249993243648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.030111725958477</v>
+        <v>2.730134310006918</v>
       </c>
       <c r="C20">
-        <v>0.3490998747240752</v>
+        <v>0.3700414830829573</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2802963139962191</v>
+        <v>0.1031017447136691</v>
       </c>
       <c r="F20">
-        <v>1.594504564481468</v>
+        <v>0.985852484491275</v>
       </c>
       <c r="G20">
-        <v>0.4288887280031446</v>
+        <v>0.336156044499802</v>
       </c>
       <c r="H20">
-        <v>0.5742016469484099</v>
+        <v>0.2487115462847669</v>
       </c>
       <c r="I20">
-        <v>0.5927761398003462</v>
+        <v>0.2299768462054885</v>
       </c>
       <c r="J20">
-        <v>0.04203379050217393</v>
+        <v>0.09206437443883431</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5353077211270971</v>
+        <v>0.4318663457360543</v>
       </c>
       <c r="M20">
-        <v>0.3251003163488022</v>
+        <v>0.586311372167863</v>
       </c>
       <c r="N20">
-        <v>1.275258885509558</v>
+        <v>0.7988534974517449</v>
       </c>
       <c r="O20">
-        <v>1.956815011102719</v>
+        <v>1.184129358122703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.13436394026985</v>
+        <v>3.073675633474011</v>
       </c>
       <c r="C21">
-        <v>0.3568802168530283</v>
+        <v>0.3939176321758424</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2789436251994921</v>
+        <v>0.1040070587598265</v>
       </c>
       <c r="F21">
-        <v>1.599411819562661</v>
+        <v>1.055351689727047</v>
       </c>
       <c r="G21">
-        <v>0.4313822532015905</v>
+        <v>0.3651009789852679</v>
       </c>
       <c r="H21">
-        <v>0.5715414843494955</v>
+        <v>0.256102461903069</v>
       </c>
       <c r="I21">
-        <v>0.5869379736150506</v>
+        <v>0.230102638009555</v>
       </c>
       <c r="J21">
-        <v>0.0451668209179843</v>
+        <v>0.1016586840422136</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5442283087252946</v>
+        <v>0.473719130560454</v>
       </c>
       <c r="M21">
-        <v>0.3457121631927365</v>
+        <v>0.6589064307575612</v>
       </c>
       <c r="N21">
-        <v>1.269951423895563</v>
+        <v>0.7935429702017558</v>
       </c>
       <c r="O21">
-        <v>1.956801450707388</v>
+        <v>1.261348383408773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.202467462062089</v>
+        <v>3.298674207070178</v>
       </c>
       <c r="C22">
-        <v>0.3619504054334044</v>
+        <v>0.4095374238026608</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2781340253211333</v>
+        <v>0.1047209820150599</v>
       </c>
       <c r="F22">
-        <v>1.603321730434757</v>
+        <v>1.102535577962882</v>
       </c>
       <c r="G22">
-        <v>0.4332812043004566</v>
+        <v>0.3849111820131128</v>
       </c>
       <c r="H22">
-        <v>0.570027499466903</v>
+        <v>0.2614438176089919</v>
       </c>
       <c r="I22">
-        <v>0.5834033194717811</v>
+        <v>0.230868943805163</v>
       </c>
       <c r="J22">
-        <v>0.04720489098563974</v>
+        <v>0.1079308304773434</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5502123624046078</v>
+        <v>0.5014156711035866</v>
       </c>
       <c r="M22">
-        <v>0.3592320444287367</v>
+        <v>0.7065533387155156</v>
       </c>
       <c r="N22">
-        <v>1.266861704091653</v>
+        <v>0.7910489589785499</v>
       </c>
       <c r="O22">
-        <v>1.957826264957987</v>
+        <v>1.314771298034174</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.166122730022948</v>
+        <v>3.178538721644429</v>
       </c>
       <c r="C23">
-        <v>0.3592457420778743</v>
+        <v>0.4011991263324148</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2785593227636909</v>
+        <v>0.1043284846525694</v>
       </c>
       <c r="F23">
-        <v>1.601170704823261</v>
+        <v>1.077184272592717</v>
       </c>
       <c r="G23">
-        <v>0.4322430413571396</v>
+        <v>0.374252211517728</v>
       </c>
       <c r="H23">
-        <v>0.5708150061638122</v>
+        <v>0.2585444243868693</v>
       </c>
       <c r="I23">
-        <v>0.585264118655541</v>
+        <v>0.2303949333774931</v>
       </c>
       <c r="J23">
-        <v>0.04611801989935316</v>
+        <v>0.1045829807355929</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5470045461123902</v>
+        <v>0.4866005372410598</v>
       </c>
       <c r="M23">
-        <v>0.352011871819208</v>
+        <v>0.6811032206224255</v>
       </c>
       <c r="N23">
-        <v>1.268476117211975</v>
+        <v>0.7922879082819634</v>
       </c>
       <c r="O23">
-        <v>1.95718471215045</v>
+        <v>1.285975266079788</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.028407367604984</v>
+        <v>2.724525994132875</v>
       </c>
       <c r="C24">
-        <v>0.3489724707694819</v>
+        <v>0.3696514310680783</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.280319682698158</v>
+        <v>0.1030889510230057</v>
       </c>
       <c r="F24">
-        <v>1.594436236663569</v>
+        <v>0.9847447488945562</v>
       </c>
       <c r="G24">
-        <v>0.4288525149115117</v>
+        <v>0.3356971203563006</v>
       </c>
       <c r="H24">
-        <v>0.5742489205238712</v>
+        <v>0.2485989674471512</v>
       </c>
       <c r="I24">
-        <v>0.5928763024958847</v>
+        <v>0.2299858108034343</v>
       </c>
       <c r="J24">
-        <v>0.04198242420071807</v>
+        <v>0.09190756086045582</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5351645332557666</v>
+        <v>0.4311877414532432</v>
       </c>
       <c r="M24">
-        <v>0.3247642760434104</v>
+        <v>0.5851279042950708</v>
       </c>
       <c r="N24">
-        <v>1.275352043298625</v>
+        <v>0.7989561782097283</v>
       </c>
       <c r="O24">
-        <v>1.956832681334106</v>
+        <v>1.18291437637339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8797778525905073</v>
+        <v>2.236257802658429</v>
       </c>
       <c r="C25">
-        <v>0.3378324555272201</v>
+        <v>0.3356585990021728</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2825394065480449</v>
+        <v>0.1022499903495238</v>
       </c>
       <c r="F25">
-        <v>1.590195842974239</v>
+        <v>0.8919138964708679</v>
       </c>
       <c r="G25">
-        <v>0.426349638944636</v>
+        <v>0.2975427556673793</v>
       </c>
       <c r="H25">
-        <v>0.5789185936227668</v>
+        <v>0.2398870873904215</v>
       </c>
       <c r="I25">
-        <v>0.6022926240331827</v>
+        <v>0.2322488095116917</v>
       </c>
       <c r="J25">
-        <v>0.0374816961313158</v>
+        <v>0.07822986545667732</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5230611383530999</v>
+        <v>0.3727411822596167</v>
       </c>
       <c r="M25">
-        <v>0.2955942550364341</v>
+        <v>0.482317303487811</v>
       </c>
       <c r="N25">
-        <v>1.284401367021367</v>
+        <v>0.8100754311817795</v>
       </c>
       <c r="O25">
-        <v>1.960889883052516</v>
+        <v>1.083214986472555</v>
       </c>
     </row>
   </sheetData>
